--- a/src/main/resources/TestData/Leave_Scenarios_Without_Creation.xlsx
+++ b/src/main/resources/TestData/Leave_Scenarios_Without_Creation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="All_without_Creation" sheetId="1" state="visible" r:id="rId2"/>
@@ -5411,15 +5411,13 @@
   </sheetPr>
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,7 +5615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -5682,7 +5680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -5747,7 +5745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -5812,7 +5810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -6007,7 +6005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -6332,7 +6330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -6527,7 +6525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -6592,7 +6590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -6657,7 +6655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -6722,7 +6720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -6787,7 +6785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -6852,7 +6850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -6917,7 +6915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -6982,7 +6980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -7047,7 +7045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -7112,7 +7110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -7177,7 +7175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -7242,7 +7240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -7307,7 +7305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
@@ -7372,7 +7370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -7437,7 +7435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -7502,7 +7500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -7567,7 +7565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -7632,7 +7630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
@@ -7697,7 +7695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
@@ -7762,7 +7760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
@@ -7827,7 +7825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
@@ -7892,7 +7890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
@@ -7957,7 +7955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>21</v>
       </c>
@@ -8022,7 +8020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -8087,7 +8085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>21</v>
       </c>
@@ -8282,7 +8280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -8347,7 +8345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>21</v>
       </c>
@@ -8412,7 +8410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
@@ -8477,7 +8475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -8672,7 +8670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>21</v>
       </c>
@@ -8997,7 +8995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>21</v>
       </c>
@@ -9192,7 +9190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>21</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>21</v>
       </c>
@@ -9322,7 +9320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>21</v>
       </c>
@@ -9387,7 +9385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>21</v>
       </c>
@@ -9452,7 +9450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>21</v>
       </c>
@@ -9517,7 +9515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>21</v>
       </c>
@@ -9582,7 +9580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>21</v>
       </c>
@@ -9647,7 +9645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>21</v>
       </c>
@@ -9712,7 +9710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>21</v>
       </c>
@@ -9777,7 +9775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>21</v>
       </c>
@@ -9842,7 +9840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
@@ -9907,7 +9905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
@@ -9972,7 +9970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>21</v>
       </c>
@@ -10037,7 +10035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>21</v>
       </c>
@@ -10102,7 +10100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>21</v>
       </c>
@@ -10167,7 +10165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
@@ -10232,7 +10230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>21</v>
       </c>
@@ -10297,7 +10295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>21</v>
       </c>
@@ -10362,7 +10360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>21</v>
       </c>
@@ -10427,7 +10425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>21</v>
       </c>
@@ -10492,7 +10490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
@@ -10557,7 +10555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>21</v>
       </c>
@@ -10622,7 +10620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -10687,7 +10685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -10752,7 +10750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
@@ -10947,7 +10945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
@@ -11012,7 +11010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>21</v>
       </c>
@@ -11077,7 +11075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>21</v>
       </c>
@@ -11142,7 +11140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>21</v>
       </c>
@@ -11337,7 +11335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>21</v>
       </c>
@@ -11662,7 +11660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>21</v>
       </c>
@@ -11857,7 +11855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>21</v>
       </c>
@@ -11922,7 +11920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>21</v>
       </c>
@@ -11987,7 +11985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>21</v>
       </c>
@@ -12052,7 +12050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>21</v>
       </c>
@@ -12117,7 +12115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>21</v>
       </c>
@@ -12182,7 +12180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>21</v>
       </c>
@@ -12247,7 +12245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>21</v>
       </c>
@@ -12312,7 +12310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>21</v>
       </c>
@@ -12377,7 +12375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>21</v>
       </c>
@@ -12442,7 +12440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>21</v>
       </c>
@@ -12507,7 +12505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>21</v>
       </c>
@@ -12572,7 +12570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>21</v>
       </c>
@@ -12637,7 +12635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>21</v>
       </c>
@@ -12702,7 +12700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>21</v>
       </c>
@@ -12767,7 +12765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>21</v>
       </c>
@@ -12832,7 +12830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>21</v>
       </c>
@@ -12897,7 +12895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>21</v>
       </c>
@@ -12962,7 +12960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>21</v>
       </c>
@@ -13027,7 +13025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>21</v>
       </c>
@@ -13092,7 +13090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>21</v>
       </c>
@@ -13157,7 +13155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>21</v>
       </c>
@@ -13222,7 +13220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>21</v>
       </c>
@@ -13287,7 +13285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>21</v>
       </c>
@@ -13352,7 +13350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>21</v>
       </c>
@@ -13417,7 +13415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>21</v>
       </c>
@@ -13612,7 +13610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>21</v>
       </c>
@@ -13677,7 +13675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>21</v>
       </c>
@@ -13742,7 +13740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>21</v>
       </c>
@@ -13807,7 +13805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>21</v>
       </c>
@@ -14002,7 +14000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>21</v>
       </c>
@@ -14327,7 +14325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>21</v>
       </c>
@@ -14522,7 +14520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>21</v>
       </c>
@@ -14587,7 +14585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>21</v>
       </c>
@@ -14652,7 +14650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>21</v>
       </c>
@@ -14717,7 +14715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>21</v>
       </c>
@@ -14782,7 +14780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>21</v>
       </c>
@@ -14847,7 +14845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
         <v>21</v>
       </c>
@@ -14912,7 +14910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>21</v>
       </c>
@@ -14977,7 +14975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>21</v>
       </c>
@@ -15042,7 +15040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>21</v>
       </c>
@@ -15107,7 +15105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>21</v>
       </c>
@@ -15172,7 +15170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>21</v>
       </c>
@@ -15237,7 +15235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>21</v>
       </c>
@@ -15302,7 +15300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>21</v>
       </c>
@@ -15367,7 +15365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>21</v>
       </c>
@@ -15432,7 +15430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
         <v>21</v>
       </c>
@@ -15497,7 +15495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>21</v>
       </c>
@@ -15562,7 +15560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
         <v>21</v>
       </c>
@@ -15627,7 +15625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>21</v>
       </c>
@@ -15692,7 +15690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
         <v>21</v>
       </c>
@@ -15757,7 +15755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>21</v>
       </c>
@@ -15822,7 +15820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
         <v>21</v>
       </c>
@@ -15887,7 +15885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>21</v>
       </c>
@@ -15952,7 +15950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>21</v>
       </c>
@@ -16017,7 +16015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>21</v>
       </c>
@@ -16667,7 +16665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
         <v>21</v>
       </c>
@@ -16992,7 +16990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
         <v>21</v>
       </c>
@@ -17317,7 +17315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
         <v>21</v>
       </c>
@@ -17642,7 +17640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
         <v>21</v>
       </c>
@@ -17837,7 +17835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
         <v>21</v>
       </c>
@@ -17902,7 +17900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
         <v>21</v>
       </c>
@@ -17967,7 +17965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
         <v>21</v>
       </c>
@@ -18032,7 +18030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
         <v>21</v>
       </c>
@@ -18097,7 +18095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
         <v>21</v>
       </c>
@@ -18292,7 +18290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
         <v>21</v>
       </c>
@@ -18617,7 +18615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
         <v>21</v>
       </c>
@@ -19332,7 +19330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
         <v>21</v>
       </c>
@@ -19657,7 +19655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
         <v>21</v>
       </c>
@@ -19982,7 +19980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
         <v>21</v>
       </c>
@@ -20307,7 +20305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
         <v>21</v>
       </c>
@@ -20502,7 +20500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
         <v>21</v>
       </c>
@@ -20567,7 +20565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
         <v>21</v>
       </c>
@@ -20632,7 +20630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
         <v>21</v>
       </c>
@@ -20697,7 +20695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
         <v>21</v>
       </c>
@@ -20762,7 +20760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
         <v>21</v>
       </c>
@@ -20957,7 +20955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
         <v>21</v>
       </c>
@@ -21282,7 +21280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
         <v>21</v>
       </c>
@@ -21495,15 +21493,15 @@
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27921,11 +27919,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33349,11 +33349,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38775,7 +38777,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44197,11 +44201,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57813,7 +57819,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData/Leave_Scenarios_Without_Creation.xlsx
+++ b/src/main/resources/TestData/Leave_Scenarios_Without_Creation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All_without_Creation" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet6" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Tenure_without_Creation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_Without_Probation!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -5404,6 +5405,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -5411,13 +5416,15 @@
   </sheetPr>
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21488,20 +21495,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21581,7 +21588,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -21589,7 +21596,7 @@
         <v>522</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>523</v>
@@ -21658,7 +21665,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -21666,7 +21673,7 @@
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>528</v>
@@ -21735,7 +21742,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -21743,7 +21750,7 @@
         <v>529</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>530</v>
@@ -21812,7 +21819,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -21820,7 +21827,7 @@
         <v>531</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>532</v>
@@ -21889,7 +21896,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -21897,7 +21904,7 @@
         <v>533</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>534</v>
@@ -21966,7 +21973,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -21974,7 +21981,7 @@
         <v>535</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>536</v>
@@ -22043,7 +22050,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -22051,7 +22058,7 @@
         <v>537</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>538</v>
@@ -22120,7 +22127,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -22128,7 +22135,7 @@
         <v>539</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>540</v>
@@ -22197,7 +22204,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -22205,7 +22212,7 @@
         <v>541</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>542</v>
@@ -22274,7 +22281,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -22282,7 +22289,7 @@
         <v>543</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>544</v>
@@ -22351,7 +22358,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -22359,7 +22366,7 @@
         <v>545</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>546</v>
@@ -22428,7 +22435,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -22436,7 +22443,7 @@
         <v>547</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>548</v>
@@ -22505,7 +22512,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -22513,7 +22520,7 @@
         <v>549</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>550</v>
@@ -22590,7 +22597,7 @@
         <v>551</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>552</v>
@@ -22659,7 +22666,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -22667,7 +22674,7 @@
         <v>553</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>554</v>
@@ -22736,7 +22743,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -22744,7 +22751,7 @@
         <v>555</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>556</v>
@@ -22813,7 +22820,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -22821,7 +22828,7 @@
         <v>557</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>558</v>
@@ -22890,7 +22897,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -22898,7 +22905,7 @@
         <v>559</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>560</v>
@@ -23044,7 +23051,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -23052,7 +23059,7 @@
         <v>563</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>564</v>
@@ -23121,7 +23128,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -23129,7 +23136,7 @@
         <v>565</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>566</v>
@@ -23198,7 +23205,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -23206,7 +23213,7 @@
         <v>567</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>568</v>
@@ -23275,7 +23282,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -23283,7 +23290,7 @@
         <v>569</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>570</v>
@@ -23429,7 +23436,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -23437,7 +23444,7 @@
         <v>573</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>574</v>
@@ -23506,7 +23513,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -23514,7 +23521,7 @@
         <v>575</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>576</v>
@@ -23583,7 +23590,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -23591,7 +23598,7 @@
         <v>577</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>578</v>
@@ -23660,7 +23667,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -23668,7 +23675,7 @@
         <v>579</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>580</v>
@@ -23745,7 +23752,7 @@
         <v>581</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>582</v>
@@ -23814,7 +23821,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -23822,7 +23829,7 @@
         <v>583</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>584</v>
@@ -23891,7 +23898,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -23899,7 +23906,7 @@
         <v>585</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>586</v>
@@ -23968,7 +23975,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -23976,7 +23983,7 @@
         <v>587</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>588</v>
@@ -24045,7 +24052,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -24053,7 +24060,7 @@
         <v>589</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>590</v>
@@ -24122,7 +24129,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
@@ -24130,7 +24137,7 @@
         <v>591</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>592</v>
@@ -24199,7 +24206,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
@@ -24207,7 +24214,7 @@
         <v>593</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>594</v>
@@ -24276,7 +24283,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
@@ -24284,7 +24291,7 @@
         <v>595</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>596</v>
@@ -24353,7 +24360,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
@@ -24361,7 +24368,7 @@
         <v>597</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>598</v>
@@ -24430,7 +24437,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
@@ -24438,7 +24445,7 @@
         <v>599</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>600</v>
@@ -24507,7 +24514,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>21</v>
       </c>
@@ -24515,7 +24522,7 @@
         <v>601</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>602</v>
@@ -24584,7 +24591,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -24592,7 +24599,7 @@
         <v>603</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>604</v>
@@ -24661,7 +24668,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>21</v>
       </c>
@@ -24669,7 +24676,7 @@
         <v>605</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>606</v>
@@ -24738,7 +24745,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>21</v>
       </c>
@@ -24746,7 +24753,7 @@
         <v>607</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>608</v>
@@ -24815,7 +24822,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -24823,7 +24830,7 @@
         <v>609</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>610</v>
@@ -24892,7 +24899,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -24900,7 +24907,7 @@
         <v>611</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>612</v>
@@ -24969,7 +24976,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>21</v>
       </c>
@@ -24977,7 +24984,7 @@
         <v>613</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>614</v>
@@ -25046,7 +25053,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
@@ -25054,7 +25061,7 @@
         <v>615</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>616</v>
@@ -25123,7 +25130,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -25131,7 +25138,7 @@
         <v>617</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>618</v>
@@ -25200,7 +25207,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
@@ -25208,7 +25215,7 @@
         <v>619</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>620</v>
@@ -25277,7 +25284,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -25285,7 +25292,7 @@
         <v>621</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>622</v>
@@ -25354,7 +25361,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>21</v>
       </c>
@@ -25362,7 +25369,7 @@
         <v>623</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>624</v>
@@ -25431,7 +25438,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
@@ -25439,7 +25446,7 @@
         <v>625</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>626</v>
@@ -25508,7 +25515,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>21</v>
       </c>
@@ -25516,7 +25523,7 @@
         <v>627</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>628</v>
@@ -25585,7 +25592,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>21</v>
       </c>
@@ -25593,7 +25600,7 @@
         <v>629</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>630</v>
@@ -25662,7 +25669,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
@@ -25670,7 +25677,7 @@
         <v>631</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>632</v>
@@ -25739,7 +25746,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>21</v>
       </c>
@@ -25747,7 +25754,7 @@
         <v>633</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>634</v>
@@ -25816,7 +25823,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -25824,7 +25831,7 @@
         <v>635</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>636</v>
@@ -25893,7 +25900,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>21</v>
       </c>
@@ -25901,7 +25908,7 @@
         <v>637</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>638</v>
@@ -25970,7 +25977,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>21</v>
       </c>
@@ -25978,7 +25985,7 @@
         <v>639</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>640</v>
@@ -26047,7 +26054,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>21</v>
       </c>
@@ -26055,7 +26062,7 @@
         <v>641</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>642</v>
@@ -26124,7 +26131,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>21</v>
       </c>
@@ -26132,7 +26139,7 @@
         <v>643</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>644</v>
@@ -26201,7 +26208,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>21</v>
       </c>
@@ -26209,7 +26216,7 @@
         <v>645</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>646</v>
@@ -26278,7 +26285,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>21</v>
       </c>
@@ -26286,7 +26293,7 @@
         <v>647</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>648</v>
@@ -26355,7 +26362,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>21</v>
       </c>
@@ -26363,7 +26370,7 @@
         <v>649</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>650</v>
@@ -26432,7 +26439,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>21</v>
       </c>
@@ -26440,7 +26447,7 @@
         <v>651</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>652</v>
@@ -26509,7 +26516,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>21</v>
       </c>
@@ -26517,7 +26524,7 @@
         <v>653</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>654</v>
@@ -26586,7 +26593,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>21</v>
       </c>
@@ -26594,7 +26601,7 @@
         <v>655</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>656</v>
@@ -26663,7 +26670,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>21</v>
       </c>
@@ -26671,7 +26678,7 @@
         <v>657</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>658</v>
@@ -26740,7 +26747,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
@@ -26748,7 +26755,7 @@
         <v>659</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>660</v>
@@ -26817,7 +26824,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
@@ -26825,7 +26832,7 @@
         <v>661</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>662</v>
@@ -26894,7 +26901,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>21</v>
       </c>
@@ -26902,7 +26909,7 @@
         <v>663</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>664</v>
@@ -26971,7 +26978,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>21</v>
       </c>
@@ -26979,7 +26986,7 @@
         <v>665</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>666</v>
@@ -27048,7 +27055,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>21</v>
       </c>
@@ -27056,7 +27063,7 @@
         <v>667</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>668</v>
@@ -27125,7 +27132,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
@@ -27133,7 +27140,7 @@
         <v>669</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>670</v>
@@ -27202,7 +27209,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>21</v>
       </c>
@@ -27210,7 +27217,7 @@
         <v>671</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>672</v>
@@ -27279,7 +27286,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>21</v>
       </c>
@@ -27287,7 +27294,7 @@
         <v>673</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>674</v>
@@ -27356,7 +27363,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>21</v>
       </c>
@@ -27364,7 +27371,7 @@
         <v>675</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>676</v>
@@ -27433,7 +27440,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>21</v>
       </c>
@@ -27441,7 +27448,7 @@
         <v>677</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>678</v>
@@ -27510,7 +27517,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
@@ -27518,7 +27525,7 @@
         <v>679</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>680</v>
@@ -27587,7 +27594,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>21</v>
       </c>
@@ -27595,7 +27602,7 @@
         <v>681</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>682</v>
@@ -27664,7 +27671,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -27672,7 +27679,7 @@
         <v>683</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>684</v>
@@ -27741,7 +27748,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -27749,7 +27756,7 @@
         <v>685</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>686</v>
@@ -27818,7 +27825,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
@@ -27826,7 +27833,7 @@
         <v>687</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>688</v>
@@ -27896,6 +27903,28 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y83">
+    <filterColumn colId="17">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Yes"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Yes"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Calendar Year"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="19">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Yes"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -27903,6 +27932,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27919,13 +27949,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33349,13 +33377,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38777,9 +38803,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44201,13 +44225,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57819,7 +57841,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData/Leave_Scenarios_Without_Creation.xlsx
+++ b/src/main/resources/TestData/Leave_Scenarios_Without_Creation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All_without_Creation" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet6" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Tenure_without_Creation!$A$1:$Y$83</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Tenure_without_Creation!$A$1:$Y$83</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">All_Without_Probation!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -5405,10 +5405,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -5417,14 +5413,14 @@
   <dimension ref="A1:U247"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,7 +5553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -5752,7 +5748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -5817,7 +5813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -6077,7 +6073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -6207,7 +6203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -6272,7 +6268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -6337,7 +6333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -6402,7 +6398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -6467,7 +6463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -6727,7 +6723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -7052,7 +7048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -7377,7 +7373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -7507,7 +7503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -7572,7 +7568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -7637,7 +7633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
@@ -7702,7 +7698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
@@ -7767,7 +7763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
@@ -7832,7 +7828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
@@ -7897,7 +7893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
@@ -7962,7 +7958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>21</v>
       </c>
@@ -8027,7 +8023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -8092,7 +8088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>21</v>
       </c>
@@ -8222,7 +8218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -8417,7 +8413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
@@ -8482,7 +8478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -8742,7 +8738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
@@ -8872,7 +8868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>21</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
@@ -9002,7 +8998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>21</v>
       </c>
@@ -9067,7 +9063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -9132,7 +9128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>21</v>
       </c>
@@ -9392,7 +9388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>21</v>
       </c>
@@ -9717,7 +9713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>21</v>
       </c>
@@ -10042,7 +10038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>21</v>
       </c>
@@ -10172,7 +10168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
@@ -10237,7 +10233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>21</v>
       </c>
@@ -10302,7 +10298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>21</v>
       </c>
@@ -10367,7 +10363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>21</v>
       </c>
@@ -10432,7 +10428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>21</v>
       </c>
@@ -10497,7 +10493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
@@ -10562,7 +10558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>21</v>
       </c>
@@ -10627,7 +10623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -10692,7 +10688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -10757,7 +10753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
@@ -10887,7 +10883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>21</v>
       </c>
@@ -11082,7 +11078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>21</v>
       </c>
@@ -11147,7 +11143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>21</v>
       </c>
@@ -11407,7 +11403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>21</v>
       </c>
@@ -11537,7 +11533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>21</v>
       </c>
@@ -11602,7 +11598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>21</v>
       </c>
@@ -11667,7 +11663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>21</v>
       </c>
@@ -11732,7 +11728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>21</v>
       </c>
@@ -11797,7 +11793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>21</v>
       </c>
@@ -12057,7 +12053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>21</v>
       </c>
@@ -12382,7 +12378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>21</v>
       </c>
@@ -12707,7 +12703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>21</v>
       </c>
@@ -12837,7 +12833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>21</v>
       </c>
@@ -12902,7 +12898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>21</v>
       </c>
@@ -12967,7 +12963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>21</v>
       </c>
@@ -13032,7 +13028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>21</v>
       </c>
@@ -13097,7 +13093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>21</v>
       </c>
@@ -13162,7 +13158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>21</v>
       </c>
@@ -13227,7 +13223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>21</v>
       </c>
@@ -13292,7 +13288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>21</v>
       </c>
@@ -13357,7 +13353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>21</v>
       </c>
@@ -13422,7 +13418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>21</v>
       </c>
@@ -13552,7 +13548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
         <v>21</v>
       </c>
@@ -13747,7 +13743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>21</v>
       </c>
@@ -13812,7 +13808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>21</v>
       </c>
@@ -14072,7 +14068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>21</v>
       </c>
@@ -14202,7 +14198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>21</v>
       </c>
@@ -14267,7 +14263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>21</v>
       </c>
@@ -14332,7 +14328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>21</v>
       </c>
@@ -14397,7 +14393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>21</v>
       </c>
@@ -14462,7 +14458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>21</v>
       </c>
@@ -14722,7 +14718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>21</v>
       </c>
@@ -15047,7 +15043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>21</v>
       </c>
@@ -15372,7 +15368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>21</v>
       </c>
@@ -15502,7 +15498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>21</v>
       </c>
@@ -15567,7 +15563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
         <v>21</v>
       </c>
@@ -15632,7 +15628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>21</v>
       </c>
@@ -15697,7 +15693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
         <v>21</v>
       </c>
@@ -15762,7 +15758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>21</v>
       </c>
@@ -15827,7 +15823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
         <v>21</v>
       </c>
@@ -15892,7 +15888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>21</v>
       </c>
@@ -15957,7 +15953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>21</v>
       </c>
@@ -16022,7 +16018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>21</v>
       </c>
@@ -16087,7 +16083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>21</v>
       </c>
@@ -16217,7 +16213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>21</v>
       </c>
@@ -16412,7 +16408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
         <v>21</v>
       </c>
@@ -16477,7 +16473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
         <v>21</v>
       </c>
@@ -16737,7 +16733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
         <v>21</v>
       </c>
@@ -16867,7 +16863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
         <v>21</v>
       </c>
@@ -16932,7 +16928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
         <v>21</v>
       </c>
@@ -16997,7 +16993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
         <v>21</v>
       </c>
@@ -17062,7 +17058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
         <v>21</v>
       </c>
@@ -17127,7 +17123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
         <v>21</v>
       </c>
@@ -17387,7 +17383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
         <v>21</v>
       </c>
@@ -17712,7 +17708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>21</v>
       </c>
@@ -18037,7 +18033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
         <v>21</v>
       </c>
@@ -18167,7 +18163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
         <v>21</v>
       </c>
@@ -18232,7 +18228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
         <v>21</v>
       </c>
@@ -18297,7 +18293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
         <v>21</v>
       </c>
@@ -18362,7 +18358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
         <v>21</v>
       </c>
@@ -18427,7 +18423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
         <v>21</v>
       </c>
@@ -18492,7 +18488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
         <v>21</v>
       </c>
@@ -18557,7 +18553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
         <v>21</v>
       </c>
@@ -18622,7 +18618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
         <v>21</v>
       </c>
@@ -18687,7 +18683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
         <v>21</v>
       </c>
@@ -18752,7 +18748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
         <v>21</v>
       </c>
@@ -18882,7 +18878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
         <v>21</v>
       </c>
@@ -19077,7 +19073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
         <v>21</v>
       </c>
@@ -19142,7 +19138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
         <v>21</v>
       </c>
@@ -19402,7 +19398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
         <v>21</v>
       </c>
@@ -19532,7 +19528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
         <v>21</v>
       </c>
@@ -19597,7 +19593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
         <v>21</v>
       </c>
@@ -19662,7 +19658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
         <v>21</v>
       </c>
@@ -19727,7 +19723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
         <v>21</v>
       </c>
@@ -19792,7 +19788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
         <v>21</v>
       </c>
@@ -20052,7 +20048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
         <v>21</v>
       </c>
@@ -20377,7 +20373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
         <v>21</v>
       </c>
@@ -20702,7 +20698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
         <v>21</v>
       </c>
@@ -20832,7 +20828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
         <v>21</v>
       </c>
@@ -20897,7 +20893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
         <v>21</v>
       </c>
@@ -20962,7 +20958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
         <v>21</v>
       </c>
@@ -21027,7 +21023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
         <v>21</v>
       </c>
@@ -21092,7 +21088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
         <v>21</v>
       </c>
@@ -21157,7 +21153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
         <v>21</v>
       </c>
@@ -21222,7 +21218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
         <v>21</v>
       </c>
@@ -21287,7 +21283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
         <v>21</v>
       </c>
@@ -21352,7 +21348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
         <v>21</v>
       </c>
@@ -21417,7 +21413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
         <v>21</v>
       </c>
@@ -21495,20 +21491,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21588,7 +21584,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -21596,7 +21592,7 @@
         <v>522</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>523</v>
@@ -21665,7 +21661,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -21673,7 +21669,7 @@
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>528</v>
@@ -21742,7 +21738,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -21750,7 +21746,7 @@
         <v>529</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>530</v>
@@ -21819,7 +21815,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -21827,7 +21823,7 @@
         <v>531</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>532</v>
@@ -21896,7 +21892,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -21904,7 +21900,7 @@
         <v>533</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>534</v>
@@ -21973,7 +21969,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -21981,7 +21977,7 @@
         <v>535</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>536</v>
@@ -22050,7 +22046,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -22058,7 +22054,7 @@
         <v>537</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>538</v>
@@ -22127,7 +22123,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -22135,7 +22131,7 @@
         <v>539</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>540</v>
@@ -22204,7 +22200,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -22212,7 +22208,7 @@
         <v>541</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>542</v>
@@ -22281,7 +22277,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -22289,7 +22285,7 @@
         <v>543</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>544</v>
@@ -22358,7 +22354,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -22366,7 +22362,7 @@
         <v>545</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>546</v>
@@ -22435,7 +22431,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -22443,7 +22439,7 @@
         <v>547</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>548</v>
@@ -22512,7 +22508,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -22520,7 +22516,7 @@
         <v>549</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>550</v>
@@ -22597,7 +22593,7 @@
         <v>551</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>552</v>
@@ -22666,7 +22662,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -22674,7 +22670,7 @@
         <v>553</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>554</v>
@@ -22743,7 +22739,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -22751,7 +22747,7 @@
         <v>555</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>556</v>
@@ -22820,7 +22816,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -22828,7 +22824,7 @@
         <v>557</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>558</v>
@@ -22897,7 +22893,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -22905,7 +22901,7 @@
         <v>559</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>560</v>
@@ -23051,7 +23047,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -23059,7 +23055,7 @@
         <v>563</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>564</v>
@@ -23128,7 +23124,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -23136,7 +23132,7 @@
         <v>565</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>566</v>
@@ -23205,7 +23201,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -23213,7 +23209,7 @@
         <v>567</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>568</v>
@@ -23282,7 +23278,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -23290,7 +23286,7 @@
         <v>569</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>570</v>
@@ -23436,7 +23432,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -23444,7 +23440,7 @@
         <v>573</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>574</v>
@@ -23513,7 +23509,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -23521,7 +23517,7 @@
         <v>575</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>576</v>
@@ -23590,7 +23586,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -23598,7 +23594,7 @@
         <v>577</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>578</v>
@@ -23667,7 +23663,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -23675,7 +23671,7 @@
         <v>579</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>580</v>
@@ -23752,7 +23748,7 @@
         <v>581</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>582</v>
@@ -23821,7 +23817,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -23829,7 +23825,7 @@
         <v>583</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>584</v>
@@ -23898,7 +23894,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -23906,7 +23902,7 @@
         <v>585</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>586</v>
@@ -23975,7 +23971,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -23983,7 +23979,7 @@
         <v>587</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>588</v>
@@ -24052,7 +24048,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -24060,7 +24056,7 @@
         <v>589</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>590</v>
@@ -24137,7 +24133,7 @@
         <v>591</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>592</v>
@@ -24206,7 +24202,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
@@ -24214,7 +24210,7 @@
         <v>593</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>594</v>
@@ -24283,7 +24279,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
@@ -24291,7 +24287,7 @@
         <v>595</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>596</v>
@@ -24360,7 +24356,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
@@ -24368,7 +24364,7 @@
         <v>597</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>598</v>
@@ -24437,7 +24433,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
@@ -24445,7 +24441,7 @@
         <v>599</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>600</v>
@@ -24522,7 +24518,7 @@
         <v>601</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>602</v>
@@ -24591,7 +24587,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -24599,7 +24595,7 @@
         <v>603</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>604</v>
@@ -24668,7 +24664,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>21</v>
       </c>
@@ -24676,7 +24672,7 @@
         <v>605</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>606</v>
@@ -24745,7 +24741,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>21</v>
       </c>
@@ -24753,7 +24749,7 @@
         <v>607</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>608</v>
@@ -24822,7 +24818,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -24830,7 +24826,7 @@
         <v>609</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>610</v>
@@ -24899,7 +24895,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -24907,7 +24903,7 @@
         <v>611</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>612</v>
@@ -24976,7 +24972,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>21</v>
       </c>
@@ -24984,7 +24980,7 @@
         <v>613</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>614</v>
@@ -25053,7 +25049,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
@@ -25061,7 +25057,7 @@
         <v>615</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>616</v>
@@ -25130,7 +25126,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -25138,7 +25134,7 @@
         <v>617</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>618</v>
@@ -25207,7 +25203,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
@@ -25215,7 +25211,7 @@
         <v>619</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>620</v>
@@ -25284,7 +25280,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -25292,7 +25288,7 @@
         <v>621</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>622</v>
@@ -25361,7 +25357,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>21</v>
       </c>
@@ -25369,7 +25365,7 @@
         <v>623</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>624</v>
@@ -25438,7 +25434,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
@@ -25446,7 +25442,7 @@
         <v>625</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>626</v>
@@ -25515,7 +25511,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>21</v>
       </c>
@@ -25523,7 +25519,7 @@
         <v>627</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>628</v>
@@ -25592,7 +25588,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>21</v>
       </c>
@@ -25600,7 +25596,7 @@
         <v>629</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>630</v>
@@ -25669,7 +25665,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
@@ -25677,7 +25673,7 @@
         <v>631</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>632</v>
@@ -25746,7 +25742,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>21</v>
       </c>
@@ -25754,7 +25750,7 @@
         <v>633</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>634</v>
@@ -25823,7 +25819,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -25831,7 +25827,7 @@
         <v>635</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>636</v>
@@ -25900,7 +25896,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>21</v>
       </c>
@@ -25908,7 +25904,7 @@
         <v>637</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>638</v>
@@ -25977,7 +25973,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>21</v>
       </c>
@@ -25985,7 +25981,7 @@
         <v>639</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>640</v>
@@ -26054,7 +26050,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>21</v>
       </c>
@@ -26062,7 +26058,7 @@
         <v>641</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>642</v>
@@ -26131,7 +26127,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>21</v>
       </c>
@@ -26139,7 +26135,7 @@
         <v>643</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>644</v>
@@ -26208,7 +26204,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>21</v>
       </c>
@@ -26216,7 +26212,7 @@
         <v>645</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>646</v>
@@ -26285,7 +26281,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>21</v>
       </c>
@@ -26293,7 +26289,7 @@
         <v>647</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>648</v>
@@ -26362,7 +26358,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>21</v>
       </c>
@@ -26370,7 +26366,7 @@
         <v>649</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>650</v>
@@ -26439,7 +26435,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>21</v>
       </c>
@@ -26447,7 +26443,7 @@
         <v>651</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>652</v>
@@ -26516,7 +26512,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>21</v>
       </c>
@@ -26524,7 +26520,7 @@
         <v>653</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>654</v>
@@ -26593,7 +26589,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>21</v>
       </c>
@@ -26601,7 +26597,7 @@
         <v>655</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>656</v>
@@ -26670,7 +26666,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>21</v>
       </c>
@@ -26678,7 +26674,7 @@
         <v>657</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>658</v>
@@ -26747,7 +26743,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
@@ -26755,7 +26751,7 @@
         <v>659</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>660</v>
@@ -26824,7 +26820,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
@@ -26832,7 +26828,7 @@
         <v>661</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>662</v>
@@ -26901,7 +26897,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>21</v>
       </c>
@@ -26909,7 +26905,7 @@
         <v>663</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>664</v>
@@ -26978,7 +26974,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>21</v>
       </c>
@@ -26986,7 +26982,7 @@
         <v>665</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>666</v>
@@ -27055,7 +27051,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>21</v>
       </c>
@@ -27063,7 +27059,7 @@
         <v>667</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>668</v>
@@ -27132,7 +27128,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
@@ -27140,7 +27136,7 @@
         <v>669</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>670</v>
@@ -27209,7 +27205,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>21</v>
       </c>
@@ -27217,7 +27213,7 @@
         <v>671</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>672</v>
@@ -27286,7 +27282,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>21</v>
       </c>
@@ -27294,7 +27290,7 @@
         <v>673</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>674</v>
@@ -27363,7 +27359,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>21</v>
       </c>
@@ -27371,7 +27367,7 @@
         <v>675</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>676</v>
@@ -27440,7 +27436,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>21</v>
       </c>
@@ -27448,7 +27444,7 @@
         <v>677</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>678</v>
@@ -27517,7 +27513,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
@@ -27525,7 +27521,7 @@
         <v>679</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>680</v>
@@ -27594,7 +27590,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>21</v>
       </c>
@@ -27602,7 +27598,7 @@
         <v>681</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>682</v>
@@ -27671,7 +27667,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -27679,7 +27675,7 @@
         <v>683</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>684</v>
@@ -27748,7 +27744,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -27756,7 +27752,7 @@
         <v>685</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>686</v>
@@ -27825,7 +27821,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
@@ -27833,7 +27829,7 @@
         <v>687</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>688</v>
@@ -27903,28 +27899,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y83">
-    <filterColumn colId="17">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Yes"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Yes"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Calendar Year"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="19">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Yes"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -27932,7 +27906,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27944,16 +27917,18 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28411,7 +28386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -28736,7 +28711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -29061,7 +29036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -29386,7 +29361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -29711,7 +29686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -30036,7 +30011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -30361,7 +30336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
@@ -31076,7 +31051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
@@ -31401,7 +31376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>21</v>
       </c>
@@ -31726,7 +31701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>21</v>
       </c>
@@ -32051,7 +32026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>21</v>
       </c>
@@ -32376,7 +32351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
@@ -32701,7 +32676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
@@ -33026,7 +33001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
@@ -33369,19 +33344,19 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D83" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
-      <selection pane="topRight" activeCell="C96" activeCellId="0" sqref="C96"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38803,7 +38778,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44225,11 +44202,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57841,7 +57820,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
